--- a/OutputData.xlsx
+++ b/OutputData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,144 +436,261 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ZipCode</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>PlanName</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>UOM</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ContractSummary</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>TermsAndConditions</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PlanFeatures</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Live Brighter 7</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>14.59 /kWh</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Price stability for 7 months</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERDCDTDTC</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Go Green Lights 24</t>
+          <t>15001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>17.79 /kWh</t>
+          <t>Electric</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Price stability and renewable energy for 24 months</t>
+          <t>Live Brighter Flex MC 15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERDCDTDTC</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>0.08990000000000001</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Intro pricing for 3 months, then fixed rate for 12 months</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Live Brighter 12</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>15.09 /kWh</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Price stability for 12 months</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERDCDTDTC</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Live Brighter 18</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>15.79 /kWh</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Price stability for 18 months</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERDCDTDTC</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Live Brighter 24</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>16.09 /kWh</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Price stability for 24 months</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERDCDTDTC</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Go Green Lights 8</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Price stability and renewable energy for 8 months</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OutputData.xlsx
+++ b/OutputData.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data2002" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15001</t>
+          <t>06006</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -483,13 +483,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Live Brighter 7</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.1219</t>
-        </is>
+          <t>Live Brighter 8</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1018999999999999</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -498,19 +496,19 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Price stability for 7 months</t>
+          <t>Price stability for 8 months</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERCTDTDTC</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>15001</t>
+          <t>06006</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -520,13 +518,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Live Brighter Flex MC 15</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.08990000000000001</t>
-        </is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1239</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -535,19 +531,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Intro pricing for 3 months, then fixed rate for 12 months</t>
+          <t>Price stability for 12 months</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERCTDTDTC</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>15001</t>
+          <t>06006</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -557,13 +553,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Live Brighter 12</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.1319</t>
-        </is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1229</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -572,19 +566,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Price stability for 12 months</t>
+          <t>Price stability for 18 months</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERCTDTDTC</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>15001</t>
+          <t>06006</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -594,13 +588,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Live Brighter 18</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.1399</t>
-        </is>
+          <t>Live Brighter 24</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1249</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -609,19 +601,19 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Price stability for 18 months</t>
+          <t>Price stability for 24 months</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERCTDTDTC</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>15001</t>
+          <t>06006</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -631,13 +623,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Live Brighter 24</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.1419</t>
-        </is>
+          <t>Live Brighter 8</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1189</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -646,49 +636,2983 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Price stability for 24 months</t>
+          <t>Price stability for 8 months</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERCTDTDTC</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>06006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Live Brighter 24</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Price stability for 24 months</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERCTDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20001</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Live Brighter 7</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1459</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Price stability for 7 months</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERDCDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Go Green Lights 24</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1779</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Price stability and renewable energy for 24 months</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERDCDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>20001</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1509</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERDCDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>20001</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1578999999999999</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERDCDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20001</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Live Brighter 24</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1609</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Price stability for 24 months</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERDCDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>07430</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Live Brighter 6</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1509</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Price stability for 6 months</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERNJDTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>07430</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Go Green Lights 24</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1898999999999999</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Price stability and renewable energy for 24 months</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERNJDTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>07430</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1619</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERNJDTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>07430</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Live Brighter 24</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1719</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Price stability for 24 months</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERNJDTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>15001</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Electric</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Live Brighter 7</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1219</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Price stability for 7 months</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Live Brighter Flex MC 15</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.08989999999999999</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Intro pricing for 3 months, then fixed rate for 12 months</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1319</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1399</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Live Brighter 24</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1419</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Price stability for 24 months</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>Go Green Lights 8</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.1409</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>/kWh</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="D22" t="n">
+        <v>0.1409</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>Price stability and renewable energy for 8 months</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Go Green Lights 24</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1589</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Price stability and renewable energy for 24 months</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Live Brighter 9</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.1409</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Renew today and enjoy an electricity plan with price stability for 9 months!</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>16124</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Live Brighter 7</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.1178999999999999</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Price stability for 7 months</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>16124</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Live Brighter Flex 15</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0839</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Intro pricing for 3 months, then fixed rate for 12 months</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>16124</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Go Green Lights 24</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Price stability and renewable energy for 24 months</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>16124</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.1239</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>16124</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.1319</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>16124</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Live Brighter 24</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.1349</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Price stability for 24 months</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>02903</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Live Brighter 8</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.1128999999999999</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Price stability for 8 months</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERRIDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>02903</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERRIDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>02903</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Live Brighter 13</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.1469</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Price stability for 13 months</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERRIDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>02903</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Live Brighter 24</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Price stability for 24 months</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERRIDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>02903</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Live Brighter 26</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.1469</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Price stability for 26 months</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERRIDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>02903</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Live Brighter 9</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.1339</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Price stability for 9 months</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERRIDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Live Brighter 6</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.00479</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Price stability for 6 months</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.00599</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.00609</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Live Brighter 6</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.00479</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Price stability for 6 months</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.00599</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.00609</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>02108</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Go Green Lights 8</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.1299</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Price stability and renewable energy for 8 months</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERMADTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>02108</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Go Green Lights 12</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.1479</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Price stability and renewable energy for 12 months</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERMADTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>02108</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Go Green Lights 18</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.1459</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Price stability and renewable energy for 18 months</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERMADTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>02108</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Go Green Lights 24</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Price stability and renewable energy for 24 months</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERMADTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>02108</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Live Brighter 24</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.1449</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Price stability for 24 months</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERMADTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>02108</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Go Green Lights 8</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.1249</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Price stability and renewable energy for 8 months</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERMADTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Live Brighter 6</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.00479</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Price stability for 6 months</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.00599</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.00609</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Live Brighter 6</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Price stability for 6 months</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Live Brighter 6</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Price stability for 6 months</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Live Brighter 6</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Price stability for 6 months</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Live Brighter 6</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Price stability for 6 months</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>02108</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Live Brighter 9</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Price stability for 9 months</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERMADTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>02108</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERMADTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>02108</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERMADTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>02108</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERMADTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Live Brighter 6</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Price stability for 6 months</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>02108</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Live Brighter 9</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Price stability for 9 months</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERMADTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>02108</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERMADTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>02108</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERMADTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>02108</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERMADTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Live Brighter 6</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Price stability for 6 months</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>02108</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Live Brighter 9</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Price stability for 9 months</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERMADTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>02108</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERMADTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>02108</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERMADTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>02108</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERMADTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>07701</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERNJDTDTCG</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>07701</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERNJDTDTCG</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>07701</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Live Brighter 8</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Price stability for 8 months</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERNJDTDTCG</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>45069</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Live Brighter Term Optimized 6</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>/CCF</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Price stability for 6 months</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>45069</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>/CCF</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>45069</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>/CCF</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>18411</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Live Brighter 11</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.759</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>/CCF</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Price stability for 11 months</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCG</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>18411</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.779</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>/CCF</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCG</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>18411</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.789</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>/CCF</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCG</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>18411</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Live Brighter 11</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.719</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>/CCF</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Price stability for 11 months</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCG</t>
         </is>
       </c>
     </row>

--- a/OutputData.xlsx
+++ b/OutputData.xlsx
@@ -1,61 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onenrg-my.sharepoint.com/personal/lane_frasier_nrg_com/Documents/Desktop/Code/DE Scraping/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_CB40DDCF516B440E62355476580F8E7CFF95868C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7498B46E-A3C5-4F22-BEC8-B6DBFA82E856}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data2802" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data2802" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -63,26 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -370,15 +420,4158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ZipCode</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Bundle</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PlanName</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>UOM</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ContractSummary</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>TermsAndConditions</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1631</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Live Brighter 6</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Price stability for 6 months</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2357</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2359</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>02108</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1366</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Live Brighter 9</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Price stability for 9 months</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERMADTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>02108</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2357</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERMADTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>02108</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>160</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERMADTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>02108</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2359</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERMADTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>07701</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2357</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERNJDTDTCG</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>07701</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2359</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERNJDTDTCG</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>07701</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1297</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Live Brighter 8</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Price stability for 8 months</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERNJDTDTCG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>45069</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1631</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Live Brighter Term Optimized 6</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>/CCF</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Price stability for 6 months</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>45069</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>159</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>/CCF</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>45069</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2359</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>/CCF</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>18411</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1313</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Live Brighter 11</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>/CCF</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Price stability for 11 months</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>18411</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2357</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>/CCF</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>18411</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2359</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>/CCF</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>18411</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>616</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Live Brighter 11</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.719</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>/CCF</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Price stability for 11 months</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>06006</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2447</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Live Brighter 8</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1009</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Price stability for 8 months</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERCTDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>06006</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2365</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.1239</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERCTDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>06006</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2411</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Live Brighter AE 12</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1168999999999999</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERCTDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>06006</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>132</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.1229</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERCTDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>06006</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2370</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Live Brighter 24</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.1249</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Price stability for 24 months</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERCTDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>06006</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1364</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Live Brighter 8</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.1189</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Price stability for 8 months</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERCTDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>06006</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>133</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Live Brighter 24</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Price stability for 24 months</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERCTDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>06006</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2460</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Live Brighter AE 8</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.1009</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Price stability for 8 months</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERCTDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20001</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1282</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Live Brighter 7</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.1459</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Price stability for 7 months</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERDCDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20001</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2353</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Go Green Lights 24</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1779</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Price stability and renewable energy for 24 months</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERDCDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>20001</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>17</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.1509</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERDCDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>20001</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>132</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.1578999999999999</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERDCDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20001</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>133</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Live Brighter 24</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.1609</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Price stability for 24 months</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERDCDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>07430</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1686</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Live Brighter 6</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.1509</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Price stability for 6 months</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERNJDTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>07430</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2353</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Go Green Lights 24</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.1898999999999999</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Price stability and renewable energy for 24 months</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERNJDTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>07430</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>17</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.1619</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERNJDTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>07430</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>133</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Live Brighter 24</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0.1719</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Price stability for 24 months</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERNJDTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1282</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Live Brighter 7</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.1219</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Price stability for 7 months</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2413</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Live Brighter Flex MC 15</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.08989999999999999</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Intro pricing for 3 months, then fixed rate for 12 months</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>17</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0.1319</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2366</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0.1399</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>133</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Live Brighter 24</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0.1419</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Price stability for 24 months</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1377</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Go Green Lights 8</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.1409</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Price stability and renewable energy for 8 months</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2353</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Go Green Lights 24</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0.1589</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Price stability and renewable energy for 24 months</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2445</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Live Brighter 9</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0.1409</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Renew today and enjoy an electricity plan with price stability for 9 months!</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>16124</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1282</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Live Brighter 7</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0.1178999999999999</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Price stability for 7 months</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>16124</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2413</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Live Brighter Flex 15</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0839</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Intro pricing for 3 months, then fixed rate for 12 months</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>16124</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2353</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Go Green Lights 24</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Price stability and renewable energy for 24 months</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>16124</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>17</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0.1239</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>16124</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>132</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0.1319</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>16124</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>133</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Live Brighter 24</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0.1349</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Price stability for 24 months</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>02903</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2447</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Live Brighter 8</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0.1128999999999999</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Price stability for 8 months</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERRIDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>02903</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>17</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERRIDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>02903</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>761</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Live Brighter 13</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0.1469</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Price stability for 13 months</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERRIDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>02903</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2439</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Live Brighter 24</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Price stability for 24 months</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERRIDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>02903</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>839</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Live Brighter 26</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0.1469</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Price stability for 26 months</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERRIDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>02903</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>626</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Live Brighter 9</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0.1339</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Price stability for 9 months</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERRIDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>06006</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2447</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Live Brighter 8</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0.1009</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Price stability for 8 months</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERCTDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>06006</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2365</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0.1239</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERCTDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>06006</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2411</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Live Brighter AE 12</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0.1168999999999999</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERCTDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>06006</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>132</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0.1229</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERCTDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>06006</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2370</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Live Brighter 24</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0.1249</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Price stability for 24 months</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERCTDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>06006</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1364</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Live Brighter 8</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0.1189</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Price stability for 8 months</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERCTDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>06006</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>133</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Live Brighter 24</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Price stability for 24 months</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERCTDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>06006</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2460</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Live Brighter AE 8</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0.1009</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Price stability for 8 months</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERCTDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>20001</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1282</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Live Brighter 7</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0.1459</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Price stability for 7 months</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERDCDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>20001</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2353</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Go Green Lights 24</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0.1779</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Price stability and renewable energy for 24 months</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERDCDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>20001</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>17</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0.1509</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERDCDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>20001</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>132</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0.1578999999999999</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERDCDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>20001</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>133</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Live Brighter 24</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0.1609</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Price stability for 24 months</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERDCDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>07430</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1686</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Live Brighter 6</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0.1509</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Price stability for 6 months</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERNJDTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>07430</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2353</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Go Green Lights 24</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0.1898999999999999</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Price stability and renewable energy for 24 months</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERNJDTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>07430</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>17</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0.1619</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERNJDTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>07430</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>133</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Live Brighter 24</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0.1719</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Price stability for 24 months</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERNJDTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1282</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Live Brighter 7</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0.1219</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Price stability for 7 months</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2413</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Live Brighter Flex MC 15</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0.08989999999999999</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Intro pricing for 3 months, then fixed rate for 12 months</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>17</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0.1319</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2366</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0.1399</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>133</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Live Brighter 24</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0.1419</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Price stability for 24 months</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1377</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Go Green Lights 8</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0.1409</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Price stability and renewable energy for 8 months</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2353</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Go Green Lights 24</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0.1589</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Price stability and renewable energy for 24 months</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2445</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Live Brighter 9</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0.1409</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Renew today and enjoy an electricity plan with price stability for 9 months!</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>16124</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1282</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Live Brighter 7</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0.1178999999999999</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Price stability for 7 months</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>16124</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2413</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Live Brighter Flex 15</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0.0839</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Intro pricing for 3 months, then fixed rate for 12 months</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>16124</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2353</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Go Green Lights 24</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Price stability and renewable energy for 24 months</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>16124</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>17</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0.1239</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>16124</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>132</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0.1319</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>16124</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>133</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Live Brighter 24</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0.1349</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Price stability for 24 months</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>02903</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2447</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Live Brighter 8</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0.1128999999999999</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Price stability for 8 months</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERRIDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>02903</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>17</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERRIDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>02903</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>761</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Live Brighter 13</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.1469</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Price stability for 13 months</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERRIDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>02903</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2439</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Live Brighter 24</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Price stability for 24 months</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERRIDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>02903</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>839</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Live Brighter 26</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.1469</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Price stability for 26 months</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERRIDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>02903</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>626</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Live Brighter 9</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0.1339</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>/kWh</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Price stability for 9 months</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERRIDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1631</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Live Brighter 6</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Price stability for 6 months</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2357</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>60687</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2359</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERILDTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>02108</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1366</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Live Brighter 9</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Price stability for 9 months</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERMADTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>02108</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>2357</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERMADTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>02108</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>160</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERMADTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>02108</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2359</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERMADTDTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>07701</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2357</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERNJDTDTCG</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>07701</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>2359</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERNJDTDTCG</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>07701</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1297</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Live Brighter 8</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>/THERM</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Price stability for 8 months</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERNJDTDTCG</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>45069</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1631</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Live Brighter Term Optimized 6</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>/CCF</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Price stability for 6 months</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>45069</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>159</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>/CCF</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>45069</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>2359</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>/CCF</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>18411</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Live Brighter 11</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0.759</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>/CCF</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Price stability for 11 months</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCG</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>18411</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2357</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Live Brighter 12</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0.779</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>/CCF</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Price stability for 12 months</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCG</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>18411</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2359</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Live Brighter 18</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0.789</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>/CCF</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Price stability for 18 months</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCG</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>18411</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Live Brighter 11</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0.719</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>/CCF</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Price stability for 11 months</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>http://directenergydocuments.gesc.com/TCPage.aspx?Doc=DERPADTDTCG</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>